--- a/src/test/java/Resources/TestData/LoginData.xlsx
+++ b/src/test/java/Resources/TestData/LoginData.xlsx
@@ -16,42 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>password</t>
-  </si>
-  <si>
-    <t>stevie_steuber@gmail.com</t>
-  </si>
-  <si>
-    <t>kaylee_ziemann@yahoo.com</t>
-  </si>
-  <si>
-    <t>marianne.monahan@gmail.com</t>
-  </si>
-  <si>
-    <t>penelope_ebert31@yahoo.com</t>
-  </si>
-  <si>
-    <t>alanis.sipes@hotmail.com</t>
-  </si>
-  <si>
-    <t>eden80@hotmail.com</t>
-  </si>
-  <si>
-    <t>leilani_beier3@yahoo.com</t>
-  </si>
-  <si>
-    <t>novella10@hotmail.com</t>
-  </si>
-  <si>
-    <t>quinton31@yahoo.com</t>
-  </si>
-  <si>
-    <t>roma.king15@gmail.com</t>
-  </si>
-  <si>
-    <t>qa_ahmedabad@yopmail.com</t>
   </si>
   <si>
     <t>Qa@123456</t>
@@ -61,6 +28,9 @@
   </si>
   <si>
     <t xml:space="preserve">login_id </t>
+  </si>
+  <si>
+    <t>qa_delhi@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -405,168 +375,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.7109375" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="A12" r:id="rId2"/>
-    <hyperlink ref="A2" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
-    <hyperlink ref="A7" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="B2" r:id="rId12"/>
-    <hyperlink ref="B3:B12" r:id="rId13" display="Qa@123456"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
